--- a/data/task/result/result.xlsx
+++ b/data/task/result/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\github\bioinformatics\autodock4\task\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\github\bioinformatics\autodock4\data\task\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -210,6 +210,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,9 +229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4586,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
@@ -4729,10 +4729,10 @@
       <c r="C11" s="6">
         <v>-1.33</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="8">
         <v>-7.9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="8">
         <v>-9.02</v>
       </c>
     </row>
@@ -4888,20 +4888,20 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <f>SUM(C2:C11)</f>
         <v>-39.660000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C11)</f>
         <v>-3.9660000000000002</v>
@@ -5047,20 +5047,20 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
         <v>-52.67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
         <v>-5.2670000000000003</v>
@@ -5205,20 +5205,20 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
         <v>-45.26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
         <v>-4.5259999999999998</v>
@@ -5364,20 +5364,20 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <f>SUM(C2:C11)</f>
         <v>-49.929999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C11)</f>
         <v>-4.9929999999999994</v>
